--- a/results/baseline_CNN_results.xlsx
+++ b/results/baseline_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,45 +444,40 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Output</t>
+          <t>Split</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Resolution</t>
+          <t>nº samples</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>nº samples</t>
+          <t>Batch size</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Batch size</t>
+          <t>Epochs</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Epochs</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -490,14 +485,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.37964995798412</v>
+        <v>5.795400282503119</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lst, ndvi, label, month</t>
+          <t>lst, no label</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -507,35 +502,32 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>wt</t>
+          <t>random</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>256</v>
+        <v>955</v>
       </c>
       <c r="G2" t="n">
-        <v>955</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>128</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>16:18:58</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>43.54</v>
-      </c>
-      <c r="M2" t="inlineStr">
+          <t>11:32:36</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>466.92</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>RMSE</t>
         </is>

--- a/results/baseline_CNN_results.xlsx
+++ b/results/baseline_CNN_results.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,64 +434,69 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Experiment</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>RMSE</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Input</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>nº samples</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Batch size</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Epochs</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Loss</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Resolution</t>
         </is>
       </c>
     </row>
@@ -488,11 +505,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.795400282503119</v>
+        <v>5.770745360785011</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lst, no label</t>
+          <t>lst</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -506,31 +523,829 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="G2" t="n">
         <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11:32:36</t>
+          <t>11:39:13</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>466.92</v>
+        <v>1500.29</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.100803696666609</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47 rivers</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>968</v>
+      </c>
+      <c r="G3" t="n">
+        <v>32</v>
+      </c>
+      <c r="H3" t="n">
+        <v>300</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>12:03:29</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1452.81</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>RMSE</t>
         </is>
+      </c>
+      <c r="M3" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.495108694678053</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47 rivers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>968</v>
+      </c>
+      <c r="G4" t="n">
+        <v>64</v>
+      </c>
+      <c r="H4" t="n">
+        <v>300</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>12:26:37</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1386.13</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.335478552035679</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47 rivers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>968</v>
+      </c>
+      <c r="G5" t="n">
+        <v>64</v>
+      </c>
+      <c r="H5" t="n">
+        <v>300</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>12:47:43</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1261.77</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.383339583251586</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47 rivers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>968</v>
+      </c>
+      <c r="G6" t="n">
+        <v>128</v>
+      </c>
+      <c r="H6" t="n">
+        <v>300</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>13:05:31</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1066.09</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.363268632593927</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47 rivers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>968</v>
+      </c>
+      <c r="G7" t="n">
+        <v>128</v>
+      </c>
+      <c r="H7" t="n">
+        <v>300</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>13:22:10</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>996.08</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.442770780699076</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G8" t="n">
+        <v>128</v>
+      </c>
+      <c r="H8" t="n">
+        <v>300</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>14:51:45</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>971.66</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.335798177815947</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G9" t="n">
+        <v>128</v>
+      </c>
+      <c r="H9" t="n">
+        <v>300</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>15:07:44</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>955.8200000000001</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.44850638173457</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G10" t="n">
+        <v>128</v>
+      </c>
+      <c r="H10" t="n">
+        <v>300</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>15:26:18</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>868.23</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.267368177267776</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G11" t="n">
+        <v>128</v>
+      </c>
+      <c r="H11" t="n">
+        <v>300</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>15:40:22</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>842.37</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.808363030939212</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>16:34:59</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>3216.15</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.387235084349983</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G13" t="n">
+        <v>128</v>
+      </c>
+      <c r="H13" t="n">
+        <v>300</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>17:26:09</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>976.97</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.037699233015613</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G14" t="n">
+        <v>128</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>17:29:03</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>3241.67</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.362460418363249</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G15" t="n">
+        <v>128</v>
+      </c>
+      <c r="H15" t="n">
+        <v>300</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>17:40:37</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>866.29</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.388731055523396</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G16" t="n">
+        <v>64</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>11:20:25</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>4268.26</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.357023217863371</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G17" t="n">
+        <v>64</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>12:30:47</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>4217.31</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/results/baseline_CNN_results.xlsx
+++ b/results/baseline_CNN_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1348,6 +1348,642 @@
         <v>64</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5.294248226366672</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="n">
+        <v>300</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>14:31:46</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>929.11</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.607636262670299</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>300</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>14:46:55</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>908.0700000000001</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6.078311932170424</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>10:01:18</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>2916.07</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.550481593573952</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G21" t="n">
+        <v>128</v>
+      </c>
+      <c r="H21" t="n">
+        <v>300</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>10:46:13</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>742.13</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.473957461065089</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G22" t="n">
+        <v>128</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>10:49:34</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>2894.55</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.539756120631798</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>80 rivers</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G23" t="n">
+        <v>128</v>
+      </c>
+      <c r="H23" t="n">
+        <v>300</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>10:57:54</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>699.79</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.483270789158199</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon, sgd</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>74 rivers</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1487</v>
+      </c>
+      <c r="G24" t="n">
+        <v>128</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>11:28:19</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>211.17</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>18.24297397565135</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon, ADAM</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>74 rivers</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1487</v>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>11:42:25</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>272.86</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.444128151645516</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>74 rivers</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1487</v>
+      </c>
+      <c r="G26" t="n">
+        <v>128</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>11:50:21</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>264.28</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.545609337499501</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>lst, direction, altitude, ndvi, slope</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>74 rivers</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1487</v>
+      </c>
+      <c r="G27" t="n">
+        <v>64</v>
+      </c>
+      <c r="H27" t="n">
+        <v>300</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>15:44:15</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1095.03</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.794367337926913</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>lst, direction, altitude, ndvi, slope</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>74 rivers</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1487</v>
+      </c>
+      <c r="G28" t="n">
+        <v>128</v>
+      </c>
+      <c r="H28" t="n">
+        <v>300</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>15:57:37</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>799.92</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.345470665218566</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>lst, direction, altitude, ndvi, slope, month, discharge, lat, lon, ADAM</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>74 rivers</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1487</v>
+      </c>
+      <c r="G29" t="n">
+        <v>64</v>
+      </c>
+      <c r="H29" t="n">
+        <v>300</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>16:44:01</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1267.25</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/baseline_CNN_results.xlsx
+++ b/results/baseline_CNN_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1984,6 +1984,165 @@
         <v>64</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.906332102135811</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>lst, direction, altitude, ndvi, slope, month, discharge, lat, lon, ADAM</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>74 rivers</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1487</v>
+      </c>
+      <c r="G30" t="n">
+        <v>64</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>17:55:00</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>4256.19</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.574782611511459</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>lst, direction, altitude, ndvi, slope, month, discharge, lat, lon, ADAM</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>74 rivers</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1487</v>
+      </c>
+      <c r="G31" t="n">
+        <v>128</v>
+      </c>
+      <c r="H31" t="n">
+        <v>300</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>18:10:01</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>898.67</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5.327191058334368</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>lst, direction, altitude, ndvi, slope, month, discharge, lat, lon, ADAM</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>74 rivers</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1487</v>
+      </c>
+      <c r="G32" t="n">
+        <v>128</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>19:00:18</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>3014.94</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
